--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS153-001 until DPLKKPS153-002 - Kepesertaan - Proses - Corporate - Verifikasi Corporate.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS153-001 until DPLKKPS153-002 - Kepesertaan - Proses - Corporate - Verifikasi Corporate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FEF463-B8A8-42C3-BEBB-706275740BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53C407-C189-4622-A58D-E2D99C4FBCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -114,14 +114,6 @@
   </si>
   <si>
     <t>KEP.TRX.445 Disetujui</t>
-  </si>
-  <si>
-    <t>Username : 31816;
-Password : bni1234;
-Role : 09 - Penyelia Settlement;
-Kode Perusahaan : PRS2209001;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan Verifikasi : KEP.TRX.445 Data kurang lengkap</t>
   </si>
   <si>
     <t>EXPLAIN</t>
@@ -141,7 +133,18 @@
     <t>Disetujui</t>
   </si>
   <si>
-    <t>PRS2208007</t>
+    <t>PRS2208018</t>
+  </si>
+  <si>
+    <t>Username : 31816;
+Password : bni1234;
+Role : 09 - Penyelia Settlement;
+Kode Perusahaan : PRS2208018;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan Verifikasi : KEP.TRX.445 Data kurang lengkap</t>
+  </si>
+  <si>
+    <t>PRS2209001</t>
   </si>
 </sst>
 </file>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +688,7 @@
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="105" x14ac:dyDescent="0.25">
@@ -705,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4">
         <v>31816</v>
@@ -729,7 +732,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -738,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="8"/>
@@ -848,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21615457-D7EB-487E-8252-E4BBEAA10214}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +927,7 @@
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -944,7 +947,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4">
         <v>31816</v>
@@ -968,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
@@ -977,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
